--- a/biology/Zoologie/Iaspis_temesa/Iaspis_temesa.xlsx
+++ b/biology/Zoologie/Iaspis_temesa/Iaspis_temesa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iaspis temesa est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Iaspis temesa a été décrit par William Chapman Hewitson en 1868, sous le nom initial de Thecla temesa.
-Synonyme : Iaspis purpurata Austin &amp; Johnson, 1996[1].
-Nom vernaculaire
-Iaspis temesa se nomme en anglais Temesa Hairstreak[2].
+Synonyme : Iaspis purpurata Austin &amp; Johnson, 1996.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iaspis temesa se nomme en anglais Temesa Hairstreak.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Iaspis_temesa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iaspis_temesa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Iaspis temesa est un petit papillon aux antennes et aux pattes annelées de blanc et de noir, avec deux fines queues, une longue et une très longue à chaque aile postérieure.
 Le dessus du mâle est bleu métallisé finement bordé de marron avec aux ailes antérieures une tache marron proche du milieu du bord costal, celui de la femelle est beige foncé.
@@ -554,36 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Iaspis_temesa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Iaspis_temesa</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -608,12 +629,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iaspis temesa est présent à Panama, au Brésil et en Guyane[1],[2],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iaspis temesa est présent à Panama, au Brésil et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Iaspis_temesa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iaspis_temesa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Iaspis temesa, sur Wikimedia CommonsIaspis temesa, sur Wikispecies
 </t>
